--- a/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CN_06_02_CO_REC_70.xlsx
+++ b/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CN_06_02_CO_REC_70.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1501,6 +1501,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,7 +1536,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1582,26 +1602,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2090,7 +2090,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
@@ -2128,14 +2128,14 @@
       <c r="B2" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="F2" s="84">
+      <c r="D2" s="96"/>
+      <c r="F2" s="88">
         <v>42074</v>
       </c>
-      <c r="G2" s="85"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="12"/>
@@ -2145,12 +2145,12 @@
       <c r="B3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="97">
         <v>6</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="87"/>
+      <c r="D3" s="98"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="12"/>
@@ -2160,10 +2160,10 @@
       <c r="B4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="3"/>
       <c r="F4" s="43" t="s">
         <v>54</v>
@@ -2181,10 +2181,10 @@
       <c r="B5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="3"/>
       <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2216,7 +2216,7 @@
       <c r="B7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="84" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2235,12 +2235,12 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="14"/>
       <c r="K8" s="8"/>
       <c r="L8" s="2"/>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="85" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -2318,10 +2318,10 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="86" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="70" t="s">
@@ -2351,10 +2351,10 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="87" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="70" t="s">
@@ -2384,10 +2384,10 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="87" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="70" t="s">
@@ -2417,7 +2417,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="118"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="83"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
@@ -2436,7 +2436,7 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="118"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="83"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
@@ -2455,7 +2455,7 @@
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="118"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="83"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
@@ -5364,25 +5364,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="63">
@@ -5390,11 +5390,11 @@
         <v>42</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="36"/>
       <c r="H3" s="26" t="s">
         <v>17</v>
@@ -5445,11 +5445,11 @@
       <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="117" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="36"/>
       <c r="H5" s="26" t="s">
         <v>21</v>
@@ -5494,12 +5494,12 @@
       <c r="C7" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="H7" s="26" t="s">
         <v>23</v>
       </c>
@@ -5593,14 +5593,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="I13" s="26" t="s">
         <v>32</v>
       </c>
@@ -5633,12 +5633,12 @@
         <v>45</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="J15" s="26">
         <v>12</v>
       </c>
@@ -5678,12 +5678,12 @@
       <c r="C17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="111" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="J17" s="26">
         <v>14</v>
       </c>
@@ -5699,12 +5699,12 @@
       <c r="C18" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
       <c r="J18" s="26">
         <v>15</v>
       </c>
@@ -5935,41 +5935,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="45" t="s">
         <v>64</v>
       </c>
